--- a/Lista Produtos/Lista.xlsx
+++ b/Lista Produtos/Lista.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao.pcarvalho\Desktop\Git Repositórios\Forecast-vendas-e-elasticidade\Lista Produtos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FFB2B1-B5DD-421D-9E0B-9BC3856E7113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070B07E2-A95B-412D-8735-7B1F0B2DC855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="630" windowWidth="14400" windowHeight="9450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -101,12 +101,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,8 +387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -402,88 +400,74 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>80625</v>
+        <v>83627</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>77244</v>
+        <v>51691</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>52251</v>
+        <v>60470</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>71248</v>
+        <v>77905</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>9891</v>
+        <v>85593</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>58407</v>
+        <v>28486</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>7172</v>
+        <v>84833</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>30717</v>
+        <v>133482</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>42891</v>
+        <v>53120</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>36949</v>
+        <v>68457</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>10036</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>88308</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>81379</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>77243</v>
-      </c>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>83626</v>
-      </c>
+      <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
-        <v>34891</v>
-      </c>
+      <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
-        <v>21120</v>
-      </c>
+      <c r="A18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
